--- a/testData_cucumber/Mobile/MobileAutomation/Datasheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Datasheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TC</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>TC_002_Dial_Mobile_Number_TD1</t>
+  </si>
+  <si>
+    <t>TC_003_Send_SMS_In_Android_Mobile_TD1</t>
+  </si>
+  <si>
+    <t>MessageToSend</t>
+  </si>
+  <si>
+    <t>Hi I am Muthusiva</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>9047939924</t>
+  </si>
+  <si>
+    <t>TC_004_Operation_On_API_Demos_App_TD1</t>
   </si>
 </sst>
 </file>
@@ -90,12 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,219 +393,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DG3"/>
+  <dimension ref="A1:DH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="20" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="36" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="7.109375" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="51" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="56" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="67" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="70" max="71" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="72" max="73" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="79" width="19" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="82" max="84" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="87" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="95" width="17" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="30" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="21" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="37" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="7.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="7.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="6.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="14.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="52" width="19.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="24.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="57" width="19.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="27.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="23.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="22.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="13.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="11.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="20.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="68" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="16.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="16.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="71" max="72" width="17.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="73" max="74" width="26.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="30.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="26.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="80" width="19" style="2" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="83" max="85" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="11.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="88" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="16.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="14.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="14.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="96" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="18.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="30" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="30" style="2" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="24.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="21.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="21.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="20.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="17.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="21.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="113" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testData_cucumber/Mobile/MobileAutomation/Datasheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Datasheet.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
+    <workbookView windowHeight="6300" windowWidth="19200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_Data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -58,6 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,19 +107,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -135,10 +136,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -173,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -302,21 +303,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -333,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -385,15 +386,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -401,86 +402,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="41" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="21" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="37" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="12.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="7.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="7.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="6.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="14.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="52" width="19.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="24.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="57" width="19.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="27.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="23.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="22.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="13.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="20.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="68" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="16.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="16.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="71" max="72" width="17.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="26.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="30.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="26.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="80" width="19" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="83" max="85" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="11.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="88" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="16.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="14.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="14.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="96" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="18.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="30" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="30" style="2" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="24.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="23.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="21.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="21.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="15.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="20.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="17.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="21.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="17.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="19.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="41.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="13.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="12.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="11.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="16" max="21" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="20.44140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="27" max="37" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="40.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="12.6640625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="2" width="10.44140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="2" width="14.6640625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="2" width="7.44140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="2" width="7.109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="2" width="6.88671875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="14.6640625" collapsed="true"/>
+    <col min="46" max="52" customWidth="true" style="2" width="19.5546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="24.33203125" collapsed="true"/>
+    <col min="54" max="57" customWidth="true" style="2" width="19.5546875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="27.44140625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="23.6640625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="22.88671875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="13.5546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="20.109375" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="66" max="68" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="16.6640625" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" style="2" width="16.6640625" collapsed="true"/>
+    <col min="71" max="72" customWidth="true" style="2" width="17.109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" style="2" width="26.88671875" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="30.5546875" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" style="2" width="26.88671875" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="78" max="80" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="83" max="85" bestFit="true" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" style="2" width="11.33203125" collapsed="true"/>
+    <col min="87" max="88" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="2" width="16.109375" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="2" width="12.109375" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="2" width="14.6640625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="14.44140625" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="94" max="96" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="18.5546875" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="23.88671875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="30.0" collapsed="true"/>
+    <col min="100" max="100" customWidth="true" style="2" width="30.0" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="24.5546875" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="23.88671875" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="21.88671875" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="20.33203125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="17.33203125" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="21.5546875" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="113" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +526,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testData_cucumber/Mobile/MobileAutomation/Datasheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Datasheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TC</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>TC_004_Operation_On_API_Demos_App_TD1</t>
+  </si>
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Mobile Automation'</t>
   </si>
 </sst>
 </file>
@@ -394,17 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="2" width="16.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="15.5546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="12.0" collapsed="true"/>
@@ -481,7 +489,7 @@
     <col min="113" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +502,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,12 +518,12 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -520,9 +534,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
